--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddcolby\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddcolby\web_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test spread sheet</t>
+  </si>
+  <si>
+    <t>added prior to push to github 5/13/2020 14:30</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,6 +369,11 @@
         <v>43964.586805555555</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test spread sheet</t>
   </si>
   <si>
     <t>added prior to push to github 5/13/2020 14:30</t>
+  </si>
+  <si>
+    <t>added prior to second push to github 5/13/2020 14:43</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,6 +377,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddcolby\web_configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcolby\Documents\test\git2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B8F32E-E75B-4DC3-B85B-B3A19CB1E91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7116"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test spread sheet</t>
   </si>
@@ -34,11 +35,14 @@
   <si>
     <t>added prior to second push to github 5/13/2020 14:43</t>
   </si>
+  <si>
+    <t>test from 4/12/2023 at 10:43 AM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,11 +354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,6 +386,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
